--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail9 Features.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,29 +503,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,115 +544,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -671,72 +659,66 @@
         <v>4.251540542817056e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.956474579199592</v>
+        <v>2.623121790229506e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.496917391833279</v>
+        <v>6.878216065274841e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.623121790229506e-07</v>
+        <v>0.08459897467081491</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.878216065274841e-06</v>
+        <v>0.2848624375544593</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08459897467081491</v>
+        <v>0.08816064260706905</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2848624375544593</v>
+        <v>1.907537449351465</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08816064260706905</v>
+        <v>2.235682237707095</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.93386451201597</v>
+        <v>4.713336603170693</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.235682237707095</v>
+        <v>9.565506443379895e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.713336603170693</v>
+        <v>499205192.3662165</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>9.565506443379895e-16</v>
+        <v>2.38210547476411e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>499205192.3662165</v>
+        <v>238.3779916016607</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.38210547476411e-07</v>
+        <v>0.0001442343886442999</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>238.3779916016607</v>
+        <v>7.798578710712498</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001442343886442999</v>
+        <v>1.414907709292907</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.798578710712498</v>
+        <v>0.008772022515334866</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.414907709292907</v>
+        <v>3.195145816921336</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008772022515334866</v>
+        <v>0.9601347738488065</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.195145816921336</v>
+        <v>1.249373709273866</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9601347738488065</v>
+        <v>105</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.249373709273866</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.7510883080501792</v>
       </c>
     </row>
@@ -751,72 +733,66 @@
         <v>3.726385429585298e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.3169044175854684</v>
+        <v>2.08901585243228e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.4372072586684177</v>
+        <v>6.881463937423581e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.08901585243228e-07</v>
+        <v>0.07910573857661245</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.881463937423581e-06</v>
+        <v>0.2768388213273837</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.07910573857661245</v>
+        <v>0.08279215797624821</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2768388213273837</v>
+        <v>1.908037683377666</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08279215797624821</v>
+        <v>2.33100989478417</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.926978729470431</v>
+        <v>4.755190572707485</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.33100989478417</v>
+        <v>9.882409456396057e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.755190572707485</v>
+        <v>519938306.1646272</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.882409456396057e-16</v>
+        <v>2.309350571970219e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>519938306.1646272</v>
+        <v>267.1569483531449</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.309350571970219e-07</v>
+        <v>0.0001537791403001653</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>267.1569483531449</v>
+        <v>8.959141785793175</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001537791403001653</v>
+        <v>1.293262692165966</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.959141785793175</v>
+        <v>0.01234327054324784</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.293262692165966</v>
+        <v>3.050092682976378</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01234327054324784</v>
+        <v>0.961021371258317</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.050092682976378</v>
+        <v>1.343076939816626</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.961021371258317</v>
+        <v>114</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.343076939816626</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.7402336418709686</v>
       </c>
     </row>
@@ -831,72 +807,66 @@
         <v>3.443272930396194e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.06832678779236639</v>
+        <v>1.686862389692522e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.6251558866284541</v>
+        <v>6.884149796526781e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.686862389692522e-07</v>
+        <v>0.07088554542216517</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.884149796526781e-06</v>
+        <v>0.2656412241707432</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07088554542216517</v>
+        <v>0.0755192965771873</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2656412241707432</v>
+        <v>1.905819777745647</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0755192965771873</v>
+        <v>2.556686005595685</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.92437662153549</v>
+        <v>4.462131001877678</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.556686005595685</v>
+        <v>1.32390090359452e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.462131001877678</v>
+        <v>384533474.582267</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.32390090359452e-15</v>
+        <v>3.129179675737036e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>384533474.582267</v>
+        <v>195.7599218419814</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.129179675737036e-07</v>
+        <v>0.0001547176213171001</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>195.7599218419814</v>
+        <v>9.82931731180326</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001547176213171001</v>
+        <v>1.268865764231105</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.82931731180326</v>
+        <v>0.01494811706484203</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.268865764231105</v>
+        <v>2.887097914264094</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01494811706484203</v>
+        <v>0.9605660665590563</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.887097914264094</v>
+        <v>1.357966396539631</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9605660665590563</v>
+        <v>81</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.357966396539631</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.6774169368059851</v>
       </c>
     </row>
@@ -911,72 +881,66 @@
         <v>3.320449652601995e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2049739555595373</v>
+        <v>1.367146293697192e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9755728202135177</v>
+        <v>6.886352601182919e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.367146293697192e-07</v>
+        <v>0.05941040305545098</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.886352601182919e-06</v>
+        <v>0.2499821862215805</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05941040305545098</v>
+        <v>0.06597129954067991</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2499821862215805</v>
+        <v>1.907198640943843</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.06597129954067991</v>
+        <v>2.443523918665703</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.924830654152279</v>
+        <v>4.172053088858448</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.443523918665703</v>
+        <v>1.514399505466603e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.172053088858448</v>
+        <v>336721246.5914531</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.514399505466603e-15</v>
+        <v>3.570154233757132e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>336721246.5914531</v>
+        <v>171.7044300382121</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.570154233757132e-07</v>
+        <v>0.0001456077235916285</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>171.7044300382121</v>
+        <v>8.827793050397034</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001456077235916285</v>
+        <v>1.303132506732732</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.827793050397034</v>
+        <v>0.01134719972743296</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.303132506732732</v>
+        <v>2.97835235552561</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01134719972743296</v>
+        <v>0.9603788532750138</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.97835235552561</v>
+        <v>1.361767594661947</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9603788532750138</v>
+        <v>81</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.361767594661947</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.4978746510320973</v>
       </c>
     </row>
@@ -991,72 +955,66 @@
         <v>3.29241382078586e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1927866442609708</v>
+        <v>1.140610576329877e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.048281510297542</v>
+        <v>6.888098885224157e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.140610576329877e-07</v>
+        <v>0.04643509598974625</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.888098885224157e-06</v>
+        <v>0.2323717491220316</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04643509598974625</v>
+        <v>0.05611667318950533</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2323717491220316</v>
+        <v>1.901399139493897</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05611667318950533</v>
+        <v>2.432413545405956</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.922815732042677</v>
+        <v>4.174756868406782</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.432413545405956</v>
+        <v>1.512438540262574e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.174756868406782</v>
+        <v>339193922.3869007</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.512438540262574e-15</v>
+        <v>3.540499642056337e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>339193922.3869007</v>
+        <v>174.0098608411348</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.540499642056337e-07</v>
+        <v>0.0001425835764216383</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>174.0098608411348</v>
+        <v>8.366137427243784</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001425835764216383</v>
+        <v>1.315221309019635</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.366137427243784</v>
+        <v>0.00997974610409595</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.315221309019635</v>
+        <v>2.999186277038475</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00997974610409595</v>
+        <v>0.9578610596338561</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.999186277038475</v>
+        <v>1.367816298607585</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9578610596338561</v>
+        <v>85</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.367816298607585</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.4235603707960095</v>
       </c>
     </row>
@@ -1071,72 +1029,66 @@
         <v>3.314005599132182e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1330980354750361</v>
+        <v>1.140610576329877e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.088646008866722</v>
+        <v>6.889424842445029e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.140610576329877e-07</v>
+        <v>0.03427423463691376</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.889424842445029e-06</v>
+        <v>0.2145465715996125</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03427423463691376</v>
+        <v>0.04717581461625209</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2145465715996125</v>
+        <v>1.901843776324175</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04717581461625209</v>
+        <v>2.404912884566205</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.921119660264067</v>
+        <v>4.174742745480705</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.404912884566205</v>
+        <v>1.512448773273387e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.174742745480705</v>
+        <v>339111257.586507</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.512448773273387e-15</v>
+        <v>3.532038452506335e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>339111257.586507</v>
+        <v>173.9262322041766</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.532038452506335e-07</v>
+        <v>0.0001451803580157216</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>173.9262322041766</v>
+        <v>8.804800571946686</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001451803580157216</v>
+        <v>1.296178674300084</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.804800571946686</v>
+        <v>0.01125503656855876</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.296178674300084</v>
+        <v>2.92904705250252</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01125503656855876</v>
+        <v>0.9575863071686874</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.92904705250252</v>
+        <v>1.366939074867314</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9575863071686874</v>
+        <v>83</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.366939074867314</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.4239056552685182</v>
       </c>
     </row>
@@ -1513,7 +1465,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.537259292800473</v>
+        <v>1.487109903836823</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.403241190829054</v>
@@ -1602,7 +1554,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.54863871521554</v>
+        <v>1.491581135068276</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.473593383928638</v>
@@ -1691,7 +1643,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.555653251656473</v>
+        <v>1.499102785837874</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.308544018857545</v>
@@ -1780,7 +1732,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.536821167907347</v>
+        <v>1.480531635362771</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.36837280552222</v>
@@ -1869,7 +1821,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.530598038205207</v>
+        <v>1.463948530022689</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.33121785159537</v>
@@ -1958,7 +1910,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.538360419174847</v>
+        <v>1.459706719931182</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.132214511314668</v>
@@ -2047,7 +1999,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.54669836047547</v>
+        <v>1.461739544745514</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.356281959451592</v>
@@ -2136,7 +2088,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.550156658182125</v>
+        <v>1.457006813189004</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.201439057328098</v>
@@ -2225,7 +2177,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.591531380240054</v>
+        <v>1.476011705327908</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.606532172112459</v>
@@ -2314,7 +2266,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.601879472114768</v>
+        <v>1.479324450815855</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.03909489142546</v>
@@ -2403,7 +2355,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.606588202143843</v>
+        <v>1.494696724609325</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.939316728525795</v>
@@ -2492,7 +2444,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.602215250993217</v>
+        <v>1.498364822137487</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.85628281085374</v>
@@ -2581,7 +2533,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.599371764446707</v>
+        <v>1.495398960644131</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.746282739062421</v>
@@ -2670,7 +2622,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.605215142789746</v>
+        <v>1.501250316839436</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.95383761859346</v>
@@ -2759,7 +2711,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.601209745298083</v>
+        <v>1.501751861855622</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.911594768434199</v>
@@ -2848,7 +2800,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.596299005003315</v>
+        <v>1.495742542524202</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.083048989541409</v>
@@ -2937,7 +2889,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.594288679207229</v>
+        <v>1.496815181184217</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.030576005592094</v>
@@ -3026,7 +2978,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.588046477191376</v>
+        <v>1.489698189819602</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.081534308964955</v>
@@ -3115,7 +3067,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.613684734482699</v>
+        <v>1.506208140576007</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.019363124074102</v>
@@ -3204,7 +3156,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.612143530823264</v>
+        <v>1.512746816414342</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.21555142500498</v>
@@ -3293,7 +3245,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.612542222493663</v>
+        <v>1.527223657344781</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.168958457325011</v>
@@ -3382,7 +3334,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.620321933690066</v>
+        <v>1.534458836686642</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.879253708177592</v>
@@ -3471,7 +3423,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.602934232827142</v>
+        <v>1.51796837678848</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.815905671572679</v>
@@ -3560,7 +3512,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.609631631362389</v>
+        <v>1.526878715586994</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.162372468173541</v>
@@ -3649,7 +3601,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.60798635504218</v>
+        <v>1.526534120317273</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.377266232284234</v>
@@ -3738,7 +3690,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.597066460202978</v>
+        <v>1.521007473217841</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.398332610908338</v>
@@ -3827,7 +3779,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.605664518079569</v>
+        <v>1.528150320402173</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.927451576063587</v>
@@ -3916,7 +3868,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.601327956982697</v>
+        <v>1.525305325076793</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.279313329744234</v>
@@ -4005,7 +3957,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.601023372947775</v>
+        <v>1.520307120572076</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.12115920697957</v>
@@ -4094,7 +4046,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.593888304422263</v>
+        <v>1.513883229195737</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.142633471305713</v>
@@ -4183,7 +4135,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.592005481897499</v>
+        <v>1.517916058500194</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.42190661696089</v>
@@ -4272,7 +4224,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.594655682844609</v>
+        <v>1.517163103900552</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.317152842205668</v>
@@ -4361,7 +4313,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.594834601849496</v>
+        <v>1.522919124575033</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.386108858972269</v>
@@ -4450,7 +4402,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.600250329579891</v>
+        <v>1.527530641067202</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.761021449281941</v>
@@ -4539,7 +4491,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.614602604439637</v>
+        <v>1.530438970133068</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.951110536002776</v>
@@ -4628,7 +4580,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.60466275707377</v>
+        <v>1.517661196574254</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.010966869433</v>
@@ -4717,7 +4669,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.496036070193568</v>
+        <v>1.447745296876463</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.961200713990184</v>
@@ -4806,7 +4758,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.489883682969763</v>
+        <v>1.451150059724647</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.027360400695957</v>
@@ -4895,7 +4847,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.485337391747768</v>
+        <v>1.450288977070983</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.986404528257786</v>
@@ -4984,7 +4936,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.483185226133002</v>
+        <v>1.447245057415088</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.950884328706014</v>
@@ -5073,7 +5025,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.489099183831384</v>
+        <v>1.451474484012005</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.998073709151447</v>
@@ -5162,7 +5114,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.491535877848591</v>
+        <v>1.45082249507492</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.02944374879979</v>
@@ -5251,7 +5203,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.494216411427719</v>
+        <v>1.45368787310017</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.003381178158976</v>
@@ -5340,7 +5292,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.502386547377809</v>
+        <v>1.413656915466497</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.602336015432921</v>
@@ -5429,7 +5381,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.290456716387749</v>
+        <v>1.270174146577137</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.660757822313909</v>
@@ -5518,7 +5470,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.291984338766303</v>
+        <v>1.273865667769308</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.672088233340931</v>
@@ -5607,7 +5559,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.293954155709244</v>
+        <v>1.27864538403311</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.673439300124655</v>
@@ -5696,7 +5648,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.294475641982346</v>
+        <v>1.276733064104897</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.672548279272185</v>
@@ -5785,7 +5737,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.294559085299896</v>
+        <v>1.27561506373267</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.681776599191659</v>
@@ -5874,7 +5826,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.293150731655911</v>
+        <v>1.274490617502072</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.677777813294396</v>
@@ -5963,7 +5915,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.298412793799987</v>
+        <v>1.278292110742124</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.658631836466898</v>
@@ -6249,7 +6201,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.488547526389112</v>
+        <v>1.454574626448502</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.344992802297221</v>
@@ -6338,7 +6290,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.509308088693348</v>
+        <v>1.470251288411252</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.490942595226568</v>
@@ -6427,7 +6379,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.506090807750029</v>
+        <v>1.463800577947969</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.185331901479084</v>
@@ -6516,7 +6468,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.483842377540705</v>
+        <v>1.437630377856554</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.314656423084539</v>
@@ -6605,7 +6557,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.483137530177592</v>
+        <v>1.427865338650453</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.27176390223631</v>
@@ -6694,7 +6646,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.483135999302242</v>
+        <v>1.413580119165098</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.01687927706576</v>
@@ -6783,7 +6735,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.48768500584743</v>
+        <v>1.412567604589247</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.378221757105822</v>
@@ -6872,7 +6824,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.492544142570835</v>
+        <v>1.412912272478803</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.067286808284544</v>
@@ -6961,7 +6913,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.535947922982189</v>
+        <v>1.438481133434276</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.659873345235825</v>
@@ -7050,7 +7002,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.536426952987165</v>
+        <v>1.439012771190575</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.783230978026527</v>
@@ -7139,7 +7091,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.553843923436051</v>
+        <v>1.462041776982296</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.818183537356903</v>
@@ -7228,7 +7180,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.550067426574411</v>
+        <v>1.460920189921889</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.856431727091745</v>
@@ -7317,7 +7269,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.55671554353615</v>
+        <v>1.465551930064454</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.647105022846034</v>
@@ -7406,7 +7358,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.562485947315455</v>
+        <v>1.472108642261016</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.744117457660405</v>
@@ -7495,7 +7447,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.565490923304463</v>
+        <v>1.475549657938544</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.745878449185278</v>
@@ -7584,7 +7536,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.572935600890509</v>
+        <v>1.481065110211841</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.795431677201385</v>
@@ -7673,7 +7625,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.568607316577481</v>
+        <v>1.47982223960026</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.761677344530495</v>
@@ -7762,7 +7714,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.569029437750539</v>
+        <v>1.472824878251676</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.786640197284482</v>
@@ -7851,7 +7803,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.593380161119758</v>
+        <v>1.485602575827512</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.592373240229724</v>
@@ -7940,7 +7892,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.574987096971458</v>
+        <v>1.483048006877486</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.853828022356359</v>
@@ -8029,7 +7981,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.584759654524577</v>
+        <v>1.498363459743009</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.07836746431822</v>
@@ -8118,7 +8070,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.59038848839729</v>
+        <v>1.498051987395885</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.898605368370285</v>
@@ -8207,7 +8159,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.570500366877645</v>
+        <v>1.485952319552183</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.890586912852318</v>
@@ -8296,7 +8248,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.566556521743957</v>
+        <v>1.484187679065437</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.877254480703785</v>
@@ -8385,7 +8337,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.567993885891089</v>
+        <v>1.49136955785023</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.957633989612332</v>
@@ -8474,7 +8426,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.554582708808834</v>
+        <v>1.485079753553858</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.096587394306079</v>
@@ -8563,7 +8515,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.556010130031706</v>
+        <v>1.486838632768636</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.81008904432634</v>
@@ -8652,7 +8604,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.55831678883751</v>
+        <v>1.487160499665277</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.942075191309617</v>
@@ -8741,7 +8693,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.563043671907195</v>
+        <v>1.48662913370665</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.995507196907822</v>
@@ -8830,7 +8782,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.55457475493559</v>
+        <v>1.471723922388658</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.984823901135191</v>
@@ -8919,7 +8871,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.554074291708847</v>
+        <v>1.477660771307286</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.960565148899835</v>
@@ -9008,7 +8960,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.547164022747618</v>
+        <v>1.470552460077319</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.103950849160719</v>
@@ -9097,7 +9049,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.541583220295497</v>
+        <v>1.47501938066633</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.936921127325308</v>
@@ -9186,7 +9138,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.553223555156356</v>
+        <v>1.486145973607123</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.460763419293064</v>
@@ -9275,7 +9227,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.576744892583893</v>
+        <v>1.497190197261755</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.838317458916889</v>
@@ -9364,7 +9316,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.542801428605547</v>
+        <v>1.472529341294875</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.199765356207408</v>
@@ -9453,7 +9405,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.390348710761604</v>
+        <v>1.3606044082647</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.729730409293905</v>
@@ -9542,7 +9494,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.386406093874392</v>
+        <v>1.363118929532172</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.744355199565765</v>
@@ -9631,7 +9583,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.391316120118857</v>
+        <v>1.368957064629443</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.741758067424776</v>
@@ -9720,7 +9672,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.387071810637593</v>
+        <v>1.359925079318865</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.72116717851646</v>
@@ -9809,7 +9761,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.390265365371967</v>
+        <v>1.360702778321238</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.717995298619434</v>
@@ -9898,7 +9850,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.391186077552849</v>
+        <v>1.358326322352489</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.748525208834519</v>
@@ -9987,7 +9939,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.393105245213541</v>
+        <v>1.360501772833563</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.739059811859292</v>
@@ -10076,7 +10028,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.415120456473208</v>
+        <v>1.3448117696383</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.665218409797446</v>
@@ -10165,7 +10117,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.263268608267913</v>
+        <v>1.242019884690319</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.697581631070669</v>
@@ -10254,7 +10206,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.258495934653145</v>
+        <v>1.239398988070541</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.70685581782714</v>
@@ -10343,7 +10295,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.261437245164292</v>
+        <v>1.244041616296492</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.705918479757493</v>
@@ -10432,7 +10384,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.261489788507094</v>
+        <v>1.243330598889272</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.710999187790161</v>
@@ -10521,7 +10473,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.263191480238005</v>
+        <v>1.245759898073481</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.723422581069105</v>
@@ -10610,7 +10562,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.264538127993326</v>
+        <v>1.245448655361307</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.717469222248977</v>
@@ -10699,7 +10651,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.274164006252049</v>
+        <v>1.252166995208747</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.646590374436081</v>
@@ -10985,7 +10937,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.540908262455717</v>
+        <v>1.503876639105664</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.035583967611418</v>
@@ -11074,7 +11026,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.549964648644689</v>
+        <v>1.509603484961616</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.772303704974473</v>
@@ -11163,7 +11115,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.556807760686983</v>
+        <v>1.516321079157943</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.82922268261637</v>
@@ -11252,7 +11204,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.549210142476634</v>
+        <v>1.516177333988584</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.044674574421517</v>
@@ -11341,7 +11293,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.569707178292379</v>
+        <v>1.529209231554247</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.589934404858006</v>
@@ -11430,7 +11382,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.568553987205249</v>
+        <v>1.52168412013701</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.006019635862548</v>
@@ -11519,7 +11471,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.536972213849184</v>
+        <v>1.480931370374139</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.792911235580255</v>
@@ -11608,7 +11560,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.520106917969382</v>
+        <v>1.45143920394053</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.952191044341908</v>
@@ -11697,7 +11649,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.516061165433484</v>
+        <v>1.437742061179543</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.896268444287446</v>
@@ -11786,7 +11738,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.512166229220928</v>
+        <v>1.434467676491308</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.992053429301664</v>
@@ -11875,7 +11827,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.525871122775231</v>
+        <v>1.440559306230688</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.659326432586793</v>
@@ -11964,7 +11916,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.507215588711788</v>
+        <v>1.432799715065386</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.962323575989662</v>
@@ -12053,7 +12005,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.503339320389053</v>
+        <v>1.429967798623468</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.702796907184129</v>
@@ -12142,7 +12094,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.497103456101389</v>
+        <v>1.423907857420533</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.946975392614877</v>
@@ -12231,7 +12183,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.495073483727986</v>
+        <v>1.425306876487713</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.811636864764976</v>
@@ -12320,7 +12272,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.497267352012094</v>
+        <v>1.425895633595675</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.723156922351736</v>
@@ -12409,7 +12361,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.487393160426608</v>
+        <v>1.414971007186892</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.875252642740935</v>
@@ -12498,7 +12450,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.490018038682904</v>
+        <v>1.413814866695068</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.856534201697188</v>
@@ -12587,7 +12539,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.500766300558057</v>
+        <v>1.421084552376923</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.620238987174798</v>
@@ -12676,7 +12628,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.499080555233164</v>
+        <v>1.423180453055105</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.602833819496099</v>
@@ -12765,7 +12717,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.500984752358283</v>
+        <v>1.427381823168312</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.656621656649116</v>
@@ -12854,7 +12806,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.508193534538788</v>
+        <v>1.435300259294514</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.768204285956242</v>
@@ -12943,7 +12895,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.503305460751219</v>
+        <v>1.430635015598768</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.905868743816893</v>
@@ -13032,7 +12984,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.501778867857262</v>
+        <v>1.434111713636155</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.017413440548704</v>
@@ -13121,7 +13073,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.50318698336578</v>
+        <v>1.44135246720222</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.844083365377791</v>
@@ -13210,7 +13162,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.504972405297722</v>
+        <v>1.44571192475724</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.165913766007819</v>
@@ -13299,7 +13251,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.512350462710366</v>
+        <v>1.442009074166604</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.91275135571975</v>
@@ -13388,7 +13340,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.525001817835993</v>
+        <v>1.448177349598772</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.099478702501805</v>
@@ -13477,7 +13429,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.53129675498347</v>
+        <v>1.452910224232937</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.513889398585493</v>
@@ -13566,7 +13518,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.547282647968479</v>
+        <v>1.462765378316631</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.205603746760538</v>
@@ -13655,7 +13607,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.553645189711817</v>
+        <v>1.468634594587074</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.710922621981042</v>
@@ -13744,7 +13696,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.552731186381715</v>
+        <v>1.470486208740851</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.153104424128222</v>
@@ -13833,7 +13785,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.558763729049082</v>
+        <v>1.476036028748688</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.77040080015958</v>
@@ -13922,7 +13874,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.555687008631953</v>
+        <v>1.4733971942007</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.626201542220743</v>
@@ -14011,7 +13963,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.548767621546082</v>
+        <v>1.471084341019774</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.570945605176745</v>
@@ -14100,7 +14052,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.55897252392422</v>
+        <v>1.478802322443109</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.405950230252592</v>
@@ -14189,7 +14141,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.525993924299771</v>
+        <v>1.456870703365843</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.308156871486891</v>
@@ -14278,7 +14230,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.526126113566388</v>
+        <v>1.465841317090463</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.449725737104053</v>
@@ -14367,7 +14319,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.523358798853054</v>
+        <v>1.466519416944433</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.450119547319031</v>
@@ -14456,7 +14408,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.511625089737458</v>
+        <v>1.452450892687021</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.469761616789443</v>
@@ -14545,7 +14497,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.518460771958033</v>
+        <v>1.451428644321691</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.556085638905727</v>
@@ -14634,7 +14586,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.517575171215449</v>
+        <v>1.446279497172269</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.319677773500783</v>
@@ -14723,7 +14675,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.504236900432711</v>
+        <v>1.437338546343694</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.391957779589745</v>
@@ -14812,7 +14764,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.49273158154715</v>
+        <v>1.397178776412881</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.680165307247796</v>
@@ -14901,7 +14853,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.306106663104003</v>
+        <v>1.272078663758867</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.697312074204914</v>
@@ -14990,7 +14942,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.304263686940777</v>
+        <v>1.274216171597612</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.710178386728296</v>
@@ -15079,7 +15031,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.302642113108138</v>
+        <v>1.271984633541303</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.710718822055552</v>
@@ -15168,7 +15120,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.296114037934866</v>
+        <v>1.265035710207126</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.716042512189204</v>
@@ -15257,7 +15209,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.298005896203644</v>
+        <v>1.268141139689317</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.711218112449435</v>
@@ -15346,7 +15298,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.298322550731594</v>
+        <v>1.265425130281323</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.722103707786468</v>
@@ -15435,7 +15387,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.300250551738217</v>
+        <v>1.265312725339139</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.733433965194798</v>
@@ -15721,7 +15673,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.627728538132939</v>
+        <v>1.549080428125521</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.68819106336072</v>
@@ -15810,7 +15762,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.639175718098069</v>
+        <v>1.555203023976686</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.529177482144466</v>
@@ -15899,7 +15851,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.641899385632622</v>
+        <v>1.556082746435218</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.611728659578888</v>
@@ -15988,7 +15940,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.636645441641322</v>
+        <v>1.554298965269</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.588371749045778</v>
@@ -16077,7 +16029,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.642959325553285</v>
+        <v>1.557870165140232</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.855748975318014</v>
@@ -16166,7 +16118,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.638232516800834</v>
+        <v>1.550034703986104</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.535762429555106</v>
@@ -16255,7 +16207,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.632807208896414</v>
+        <v>1.532515121354788</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.980453250769354</v>
@@ -16344,7 +16296,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.602659569184648</v>
+        <v>1.486995256037483</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.584466479675518</v>
@@ -16433,7 +16385,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.601921149157062</v>
+        <v>1.475343575510252</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.876784210546352</v>
@@ -16522,7 +16474,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.607058144721893</v>
+        <v>1.482082190208716</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.265600402585226</v>
@@ -16611,7 +16563,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.608286163080547</v>
+        <v>1.488270253574665</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.972609611474062</v>
@@ -16700,7 +16652,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.605737113169593</v>
+        <v>1.489788106380646</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.008116396614565</v>
@@ -16789,7 +16741,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.612977060023983</v>
+        <v>1.499937927854807</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.922685929943362</v>
@@ -16878,7 +16830,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.614779358822386</v>
+        <v>1.505295898645145</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.078336758630058</v>
@@ -16967,7 +16919,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.617138635467554</v>
+        <v>1.50661885118479</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.150513004735571</v>
@@ -17056,7 +17008,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.620866086925683</v>
+        <v>1.503860106787626</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.104538835564224</v>
@@ -17145,7 +17097,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.614016445566005</v>
+        <v>1.501191184489156</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.199946259900582</v>
@@ -17234,7 +17186,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.610026925624319</v>
+        <v>1.499817392275363</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.154701426385761</v>
@@ -17323,7 +17275,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.619825030933625</v>
+        <v>1.514148412596539</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.139014182801129</v>
@@ -17412,7 +17364,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.620678269193342</v>
+        <v>1.508374825629833</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.020816973966068</v>
@@ -17501,7 +17453,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.606093722478538</v>
+        <v>1.505036355128312</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.386442293229111</v>
@@ -17590,7 +17542,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.601001950145112</v>
+        <v>1.501362880129291</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.121604162551244</v>
@@ -17679,7 +17631,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.591206552349266</v>
+        <v>1.49452658137608</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.205499000652263</v>
@@ -17768,7 +17720,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.603684413369809</v>
+        <v>1.509885461175669</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.512764873624703</v>
@@ -17857,7 +17809,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.592901029929933</v>
+        <v>1.498884706679998</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.464346110948855</v>
@@ -17946,7 +17898,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.58317962137072</v>
+        <v>1.492043703882922</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.03700584337435</v>
@@ -18035,7 +17987,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.595366586524362</v>
+        <v>1.503720657265726</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.594045413632158</v>
@@ -18124,7 +18076,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.600236760740485</v>
+        <v>1.499735696389325</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.313603868654856</v>
@@ -18213,7 +18165,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.596139846127036</v>
+        <v>1.498766013827405</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.474921732164558</v>
@@ -18302,7 +18254,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.595151485601843</v>
+        <v>1.502290751100171</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.232689149498815</v>
@@ -18391,7 +18343,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.588168102081229</v>
+        <v>1.502199472267929</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.510459009237859</v>
@@ -18480,7 +18432,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.593137711363978</v>
+        <v>1.510021603099415</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.016686402286506</v>
@@ -18569,7 +18521,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.585411642100516</v>
+        <v>1.501805294596061</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.636890942425426</v>
@@ -18658,7 +18610,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.591012720151564</v>
+        <v>1.508510898699207</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.775759113451804</v>
@@ -18747,7 +18699,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.605930534005178</v>
+        <v>1.527024176838655</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.459070860656386</v>
@@ -18836,7 +18788,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.603123122093213</v>
+        <v>1.527944528899968</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.196078847984443</v>
@@ -18925,7 +18877,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.535378506401483</v>
+        <v>1.48115204065116</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.168230837825306</v>
@@ -19014,7 +18966,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.543321163800636</v>
+        <v>1.489876076797404</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.270588412800671</v>
@@ -19103,7 +19055,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.542320296108015</v>
+        <v>1.484921911415521</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.215704207873443</v>
@@ -19192,7 +19144,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.540841800729623</v>
+        <v>1.487920216494886</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.236663652823078</v>
@@ -19281,7 +19233,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.550930374040917</v>
+        <v>1.499302126725571</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.280938445287654</v>
@@ -19370,7 +19322,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.533948264678036</v>
+        <v>1.481185595559969</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.227278405500424</v>
@@ -19459,7 +19411,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.530852445901242</v>
+        <v>1.483445020323678</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.212880042584019</v>
@@ -19548,7 +19500,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.546220340894046</v>
+        <v>1.465201013013948</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.074055745575768</v>
@@ -19637,7 +19589,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.470646248012479</v>
+        <v>1.425768582154425</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.107643134610666</v>
@@ -19726,7 +19678,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.476997727281926</v>
+        <v>1.427109622560982</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.125389511954006</v>
@@ -19815,7 +19767,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.475845706369378</v>
+        <v>1.425327274674508</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.129477860145766</v>
@@ -19904,7 +19856,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.484794760688142</v>
+        <v>1.431063595284498</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.141610413300176</v>
@@ -19993,7 +19945,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.483850716904528</v>
+        <v>1.429131255023943</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.143033976007538</v>
@@ -20082,7 +20034,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.474717124565387</v>
+        <v>1.421091315301006</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.114090512272155</v>
@@ -20171,7 +20123,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.482673913652814</v>
+        <v>1.422792896902516</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.044203912810252</v>
@@ -20457,7 +20409,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.528141078401061</v>
+        <v>1.48141960534056</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.738607692360386</v>
@@ -20546,7 +20498,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.543454977114408</v>
+        <v>1.491834114319053</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.711287947418867</v>
@@ -20635,7 +20587,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.546736449448938</v>
+        <v>1.493600040296295</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.572344474410091</v>
@@ -20724,7 +20676,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.536719091742926</v>
+        <v>1.484115709381116</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.763941302895395</v>
@@ -20813,7 +20765,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.537309190529491</v>
+        <v>1.472860631710207</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.624167383279105</v>
@@ -20902,7 +20854,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.542060877613008</v>
+        <v>1.464192441640358</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.413743617815983</v>
@@ -20991,7 +20943,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.545273353257029</v>
+        <v>1.461626853219961</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.438691051208445</v>
@@ -21080,7 +21032,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.560148333314471</v>
+        <v>1.470098840259897</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.47472152176765</v>
@@ -21169,7 +21121,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.606425037443522</v>
+        <v>1.497390638721518</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.989728645490343</v>
@@ -21258,7 +21210,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.609224881769132</v>
+        <v>1.494806857552165</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.142146425717427</v>
@@ -21347,7 +21299,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.610311221191038</v>
+        <v>1.509701995375812</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.214309467771607</v>
@@ -21436,7 +21388,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.615640151698436</v>
+        <v>1.518071975167538</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.029638262520513</v>
@@ -21525,7 +21477,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.608551890408839</v>
+        <v>1.510306166028664</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.144368926983866</v>
@@ -21614,7 +21566,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.604675555930261</v>
+        <v>1.507345404883924</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.999438769476064</v>
@@ -21703,7 +21655,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.61137670229628</v>
+        <v>1.516176140960689</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.057710938883022</v>
@@ -21792,7 +21744,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.609637296718843</v>
+        <v>1.510939458222152</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.276366136886914</v>
@@ -21881,7 +21833,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.59729567355327</v>
+        <v>1.501361161847888</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.152516690801139</v>
@@ -21970,7 +21922,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.588296514129598</v>
+        <v>1.492028917990404</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.077266273072316</v>
@@ -22059,7 +22011,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.600707673464641</v>
+        <v>1.496229850204973</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.214105634340575</v>
@@ -22148,7 +22100,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.59423009890005</v>
+        <v>1.503919301114029</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.967965776281311</v>
@@ -22237,7 +22189,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.600477980535085</v>
+        <v>1.517683850617895</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.077057964404597</v>
@@ -22326,7 +22278,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.611717782425173</v>
+        <v>1.527180936454192</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.112579855277758</v>
@@ -22415,7 +22367,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.588603230579624</v>
+        <v>1.507261638549812</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.877413011999927</v>
@@ -22504,7 +22456,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.598211183029651</v>
+        <v>1.521933832468041</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.097148764995174</v>
@@ -22593,7 +22545,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.594432710422216</v>
+        <v>1.520983495467949</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.062330665746506</v>
@@ -22682,7 +22634,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.592080130178927</v>
+        <v>1.522919284131884</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.359688972862243</v>
@@ -22771,7 +22723,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.588237445387694</v>
+        <v>1.518782045013959</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.061217632006875</v>
@@ -22860,7 +22812,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.592088267436826</v>
+        <v>1.526856911943047</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.990050992002471</v>
@@ -22949,7 +22901,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.599584417544886</v>
+        <v>1.53560817208841</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.221723927004947</v>
@@ -23038,7 +22990,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.592536220391628</v>
+        <v>1.525942781713745</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.124646635542302</v>
@@ -23127,7 +23079,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.593687315793042</v>
+        <v>1.53475486140377</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.311822807086004</v>
@@ -23216,7 +23168,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.597995235787524</v>
+        <v>1.53868763741013</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.138488486785529</v>
@@ -23305,7 +23257,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.599194228572069</v>
+        <v>1.543032429073365</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.193535022396082</v>
@@ -23394,7 +23346,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.60845724089637</v>
+        <v>1.558439131121003</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.927780683122196</v>
@@ -23483,7 +23435,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.626576542655398</v>
+        <v>1.569585289417901</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.979016625834385</v>
@@ -23572,7 +23524,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.553487183802831</v>
+        <v>1.512711910700921</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.370536261650587</v>
@@ -23661,7 +23613,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.456293814068317</v>
+        <v>1.436006982628756</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.019111909296138</v>
@@ -23750,7 +23702,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.46208231268826</v>
+        <v>1.450239762973204</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.994379074431546</v>
@@ -23839,7 +23791,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.464601215969286</v>
+        <v>1.453950529393938</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.010542885142581</v>
@@ -23928,7 +23880,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.471240239677807</v>
+        <v>1.45688673636103</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.013396183481789</v>
@@ -24017,7 +23969,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.473585958741749</v>
+        <v>1.45807768429112</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.995890554859996</v>
@@ -24106,7 +24058,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.476514840650081</v>
+        <v>1.459350378085938</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.969021559078769</v>
@@ -24195,7 +24147,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.476129302485782</v>
+        <v>1.458268405288718</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.973390512510087</v>
@@ -24284,7 +24236,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.468007279645252</v>
+        <v>1.424858406683244</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.586418257414291</v>
@@ -24373,7 +24325,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.265673145148541</v>
+        <v>1.258584894691387</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.570634861718362</v>
@@ -24462,7 +24414,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.258645158158867</v>
+        <v>1.255123063843502</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.57153640494641</v>
@@ -24551,7 +24503,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.26118222728542</v>
+        <v>1.258996729451524</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.575231784370055</v>
@@ -24640,7 +24592,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.26265694056628</v>
+        <v>1.260617582693944</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.578539843976102</v>
@@ -24729,7 +24681,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.259314214776927</v>
+        <v>1.256881115266987</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.581351265230915</v>
@@ -24818,7 +24770,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.260245577291883</v>
+        <v>1.256914274664672</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.585644118927692</v>
@@ -24907,7 +24859,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.272230060699471</v>
+        <v>1.267217138440347</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.561812582505464</v>
@@ -25193,7 +25145,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.504434002128387</v>
+        <v>1.501349298807145</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.48352336072101</v>
@@ -25282,7 +25234,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.505940662906333</v>
+        <v>1.500873823210043</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.408039925717739</v>
@@ -25371,7 +25323,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.513537745893245</v>
+        <v>1.505787678211713</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.315896849599096</v>
@@ -25460,7 +25412,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.517176379397726</v>
+        <v>1.510674776399096</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.542029897654284</v>
@@ -25549,7 +25501,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.540373871517301</v>
+        <v>1.524451355221153</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.240151615661545</v>
@@ -25638,7 +25590,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.546399802749444</v>
+        <v>1.528073292670052</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.475279376327834</v>
@@ -25727,7 +25679,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.541123603464479</v>
+        <v>1.513977057878641</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.226616117649378</v>
@@ -25816,7 +25768,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.536518186627136</v>
+        <v>1.493910953809202</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.710781057167261</v>
@@ -25905,7 +25857,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.548180075718304</v>
+        <v>1.499788366344745</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.612454390967668</v>
@@ -25994,7 +25946,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.564922180652274</v>
+        <v>1.513417501908336</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.390964359230368</v>
@@ -26083,7 +26035,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.585597497232669</v>
+        <v>1.529784310347763</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.048952198715677</v>
@@ -26172,7 +26124,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.522820650720732</v>
+        <v>1.480171721254673</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.2423436787945</v>
@@ -26261,7 +26213,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.516493942260644</v>
+        <v>1.479793481079331</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.267619754919584</v>
@@ -26350,7 +26302,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.510462987797458</v>
+        <v>1.473967825434453</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.243262567801198</v>
@@ -26439,7 +26391,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.508931984989748</v>
+        <v>1.471592178501318</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.24147792888524</v>
@@ -26528,7 +26480,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.521878736503708</v>
+        <v>1.474572336807</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.182974174306973</v>
@@ -26617,7 +26569,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.533865115243489</v>
+        <v>1.484105541113107</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.164698404482082</v>
@@ -26706,7 +26658,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.51714766711439</v>
+        <v>1.466493144785898</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.196796084037731</v>
@@ -26795,7 +26747,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.525783453330306</v>
+        <v>1.480062896163888</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.207953938636704</v>
@@ -26884,7 +26836,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.529181383452041</v>
+        <v>1.48585684277712</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.229102960771468</v>
@@ -26973,7 +26925,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.542857404253479</v>
+        <v>1.498737496602594</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.10530132292444</v>
@@ -27062,7 +27014,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.544428781660603</v>
+        <v>1.50308966347066</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.101156785171251</v>
@@ -27151,7 +27103,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.549631282980086</v>
+        <v>1.517479044029525</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.163845500753703</v>
@@ -27240,7 +27192,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.555596386928273</v>
+        <v>1.523312415519541</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.16653952558551</v>
@@ -27329,7 +27281,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.537819111314219</v>
+        <v>1.505013203517259</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.08417084565585</v>
@@ -27418,7 +27370,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.535391129997596</v>
+        <v>1.499986508655115</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.137514124450968</v>
@@ -27507,7 +27459,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.607767680955881</v>
+        <v>1.566052924065925</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.526099453350265</v>
@@ -27596,7 +27548,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.620796173845804</v>
+        <v>1.574554971498014</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.935247180844799</v>
@@ -27685,7 +27637,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.615268202336681</v>
+        <v>1.567383123577694</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.231139404830227</v>
@@ -27774,7 +27726,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.608543426000117</v>
+        <v>1.55899987701807</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.364875878759571</v>
@@ -27863,7 +27815,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.610870247078662</v>
+        <v>1.568450303058083</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.108705248809058</v>
@@ -27952,7 +27904,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.608418827851641</v>
+        <v>1.568479999293924</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.016033447421024</v>
@@ -28041,7 +27993,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.624516746510428</v>
+        <v>1.582300831549648</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.7981076985694</v>
@@ -28130,7 +28082,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.625875338719054</v>
+        <v>1.582865724882367</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.67585385754581</v>
@@ -28219,7 +28171,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.608703546002101</v>
+        <v>1.562913864188944</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.804699190952868</v>
@@ -28308,7 +28260,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.569611133723667</v>
+        <v>1.535760456556468</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.330677689710198</v>
@@ -28397,7 +28349,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.409622208568356</v>
+        <v>1.397981427179236</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.80175221902823</v>
@@ -28486,7 +28438,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.387970915760182</v>
+        <v>1.375254058742946</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.815967714275963</v>
@@ -28575,7 +28527,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.383958813351044</v>
+        <v>1.37138112630158</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.802124239958602</v>
@@ -28664,7 +28616,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.385618311825119</v>
+        <v>1.368680240674429</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.811530256801873</v>
@@ -28753,7 +28705,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.384876366549136</v>
+        <v>1.37073566419938</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.795874895256211</v>
@@ -28842,7 +28794,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.381931038146465</v>
+        <v>1.362671283518561</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.829569463818277</v>
@@ -28931,7 +28883,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.377491706044852</v>
+        <v>1.357500884495126</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.835618767195693</v>
@@ -29020,7 +28972,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.397926705728139</v>
+        <v>1.337072119325115</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.657698666710913</v>
@@ -29109,7 +29061,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.251080209835387</v>
+        <v>1.237178778825782</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.700074948075563</v>
@@ -29198,7 +29150,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.244580288412513</v>
+        <v>1.22949849747337</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.713417520541046</v>
@@ -29287,7 +29239,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.241709659326237</v>
+        <v>1.226388277082726</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.706420260107836</v>
@@ -29376,7 +29328,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.239322075888796</v>
+        <v>1.224352727208446</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.716247232042061</v>
@@ -29465,7 +29417,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.242209036442862</v>
+        <v>1.226578662319842</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.700201351523905</v>
@@ -29554,7 +29506,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.245302373801203</v>
+        <v>1.229835769303227</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.728904999408093</v>
@@ -29643,7 +29595,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.258117501832727</v>
+        <v>1.23897990402556</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.666230305219812</v>
